--- a/biology/Zoologie/Chloreuptychia_chlorimene/Chloreuptychia_chlorimene.xlsx
+++ b/biology/Zoologie/Chloreuptychia_chlorimene/Chloreuptychia_chlorimene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia chlorimene est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Chloreuptychia.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia chlorimene a été décrit par Jacob Hübner en 1819 sous le nom d' Euptychia chlorimene.
-Synonyme : Papilio chloris Cramer, [1780][1].
-Sous-espèces
-Chloreuptychia chlorimene agathina (Weymer, 1911)[1].
-Nom vernaculaire
-Chloreuptychia chlorimene se nomme Hübner's Blue Ringlet en anglais[2].
+Synonyme : Papilio chloris Cramer, .
 </t>
         </is>
       </c>
@@ -544,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chloreuptychia chlorimene est un papillon d'une envergure d'environ 38 mm aux ailes translucides avec sur le dessus les ocelles de la face ventrales visibles en transparence et la partie proche de l'abdomen des ailes postérieures des mâles bleu foncé[3].
-Le revers est bleuté avec trois bandes marron, basale, discale et postdiscale, un ocelle noir cerné de jaune doublement pupillé à l'apex des ailes antérieures et une ligne d'ocelles cernés de jaune dont les deux proches de l'apex et le gros proche de l'angle anal sont noir et doublement pupillés aux ailes postérieures[4].
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia chlorimene agathina (Weymer, 1911).
 </t>
         </is>
       </c>
@@ -576,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chloreuptychia chlorimene vole toute l'année[4].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia chlorimene se nomme Hübner's Blue Ringlet en anglais.
 </t>
         </is>
       </c>
@@ -607,16 +628,155 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia chlorimene est un papillon d'une envergure d'environ 38 mm aux ailes translucides avec sur le dessus les ocelles de la face ventrales visibles en transparence et la partie proche de l'abdomen des ailes postérieures des mâles bleu foncé.
+Le revers est bleuté avec trois bandes marron, basale, discale et postdiscale, un ocelle noir cerné de jaune doublement pupillé à l'apex des ailes antérieures et une ligne d'ocelles cernés de jaune dont les deux proches de l'apex et le gros proche de l'angle anal sont noir et doublement pupillés aux ailes postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia chlorimene vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloreuptychia chlorimene est présent en Équateur, au Surinam et en Guyane[1],[4].
-Biotope
-Chloreuptychia chlorimene réside dans la forêt humide[2].
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia chlorimene est présent en Équateur, au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia chlorimene réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_chlorimene</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Chloreuptychia chlorimene, sur Wikimedia CommonsChloreuptychia chlorimene, sur Wikispecies
 </t>
